--- a/mf-intelligence/data/processed/quant/quant_Large_and_Mid_Cap_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Large_and_Mid_Cap_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,17 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Jan_2026</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nov_2025</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Oct_2025</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>INE002A01018</t>
+          <t>INE406A01037</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Reliance Industries Limited</t>
+          <t>Aurobindo Pharma Limited</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -492,30 +492,30 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10.008666</v>
+        <v>7.921843</v>
       </c>
       <c r="E2" t="n">
-        <v>10.111124</v>
+        <v>6.98705</v>
       </c>
       <c r="F2" t="n">
-        <v>10.516761</v>
+        <v>6.962837</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1024580000000004</v>
+        <v>0.934793</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5080950000000009</v>
+        <v>0.9590059999999996</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>INE406A01037</t>
+          <t>INE775A01035</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aurobindo Pharma Limited</t>
+          <t>Samvardhana Motherson International Ltd</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -524,19 +524,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6.98705</v>
+        <v>6.56115</v>
       </c>
       <c r="E3" t="n">
-        <v>6.962837</v>
+        <v>6.276131</v>
       </c>
       <c r="F3" t="n">
-        <v>6.397524</v>
+        <v>5.439641</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0242129999999996</v>
+        <v>0.2850189999999992</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5895260000000002</v>
+        <v>1.121509</v>
       </c>
     </row>
     <row r="4">
@@ -556,30 +556,30 @@
         </is>
       </c>
       <c r="D4" t="n">
+        <v>6.354931</v>
+      </c>
+      <c r="E4" t="n">
         <v>6.849578</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>6.079997</v>
       </c>
-      <c r="F4" t="n">
-        <v>6.433149</v>
-      </c>
       <c r="G4" t="n">
-        <v>0.7695810000000005</v>
+        <v>-0.4946470000000005</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4164289999999999</v>
+        <v>0.274934</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>INE775A01035</t>
+          <t>INE018A01030</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Samvardhana Motherson International Ltd</t>
+          <t>Larsen &amp; Toubro Limited</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,30 +588,30 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6.276131</v>
+        <v>5.980584</v>
       </c>
       <c r="E5" t="n">
-        <v>5.439641</v>
+        <v>5.592055</v>
       </c>
       <c r="F5" t="n">
-        <v>4.877879</v>
+        <v>5.355863</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8364900000000004</v>
+        <v>0.3885290000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>1.398252</v>
+        <v>0.6247210000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>INE018A01030</t>
+          <t>INE002A01018</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Larsen &amp; Toubro Limited</t>
+          <t>Reliance Industries Limited</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5.592055</v>
+        <v>5.877455</v>
       </c>
       <c r="E6" t="n">
-        <v>5.355863</v>
+        <v>10.008666</v>
       </c>
       <c r="F6" t="n">
-        <v>5.249986</v>
+        <v>10.111124</v>
       </c>
       <c r="G6" t="n">
-        <v>0.236192</v>
+        <v>-4.131211</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3420690000000004</v>
+        <v>-4.233669</v>
       </c>
     </row>
     <row r="7">
@@ -652,30 +652,30 @@
         </is>
       </c>
       <c r="D7" t="n">
+        <v>5.445909</v>
+      </c>
+      <c r="E7" t="n">
         <v>5.17921</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>5.13404</v>
       </c>
-      <c r="F7" t="n">
-        <v>5.437755</v>
-      </c>
       <c r="G7" t="n">
-        <v>0.0451700000000006</v>
+        <v>0.266699</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.2585449999999998</v>
+        <v>0.3118690000000006</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>INE0J1Y01017</t>
+          <t>INE758E01017</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Life Insurance Corporation Of India</t>
+          <t>Jio Financial Services Limited</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -684,30 +684,30 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4.069492</v>
+        <v>3.638142</v>
       </c>
       <c r="E8" t="n">
-        <v>4.09185</v>
+        <v>3.796489</v>
       </c>
       <c r="F8" t="n">
-        <v>4.050602</v>
+        <v>3.787719</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.02235799999999966</v>
+        <v>-0.1583469999999996</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01889000000000074</v>
+        <v>-0.1495769999999998</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INE758E01017</t>
+          <t>INE795G01014</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jio Financial Services Limited</t>
+          <t>HDFC Life Insurance Co Ltd</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -716,30 +716,30 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3.796489</v>
+        <v>2.919895</v>
       </c>
       <c r="E9" t="n">
-        <v>3.787719</v>
+        <v>2.696909</v>
       </c>
       <c r="F9" t="n">
-        <v>3.755834</v>
+        <v>2.641767</v>
       </c>
       <c r="G9" t="n">
-        <v>0.008769999999999722</v>
+        <v>0.2229860000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04065499999999966</v>
+        <v>0.2781279999999997</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INE271C01023</t>
+          <t>INE930H01031</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DLF Limited</t>
+          <t>K.P.R. Mill Limited</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -748,30 +748,30 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3.552037</v>
+        <v>2.616977</v>
       </c>
       <c r="E10" t="n">
-        <v>3.593398</v>
+        <v>2.553775</v>
       </c>
       <c r="F10" t="n">
-        <v>3.71664</v>
+        <v>2.81131</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0413610000000002</v>
+        <v>0.06320199999999998</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.1646030000000001</v>
+        <v>-0.1943330000000003</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INE154A01025</t>
+          <t>INE216A01030</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ITC Limited</t>
+          <t>Britannia Industries Limited</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -780,30 +780,30 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3.439933</v>
+        <v>2.478869</v>
       </c>
       <c r="E11" t="n">
-        <v>3.316147</v>
+        <v>3.216406</v>
       </c>
       <c r="F11" t="n">
-        <v>3.412505</v>
+        <v>2.996257</v>
       </c>
       <c r="G11" t="n">
-        <v>0.123786</v>
+        <v>-0.7375370000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02742800000000001</v>
+        <v>-0.517388</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INE216A01030</t>
+          <t>INE151A01013</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Britannia Industries Limited</t>
+          <t>Tata Communications Limited</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -812,30 +812,30 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3.216406</v>
+        <v>2.22615</v>
       </c>
       <c r="E12" t="n">
-        <v>2.996257</v>
+        <v>2.329661</v>
       </c>
       <c r="F12" t="n">
-        <v>2.960406</v>
+        <v>2.226495</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2201490000000002</v>
+        <v>-0.1035110000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2560000000000002</v>
+        <v>-0.0003449999999998177</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INE795G01014</t>
+          <t>INE699H01024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HDFC Life Insurance Co Ltd</t>
+          <t>Adani Wilmar Limited</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -844,30 +844,30 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2.696909</v>
+        <v>2.016296</v>
       </c>
       <c r="E13" t="n">
-        <v>2.641767</v>
+        <v>2.013451</v>
       </c>
       <c r="F13" t="n">
-        <v>2.503406</v>
+        <v>2.111941</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05514199999999958</v>
+        <v>0.002845000000000208</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1935029999999998</v>
+        <v>-0.09564499999999976</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INE930H01031</t>
+          <t>INE042A01014</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>K.P.R. Mill Limited</t>
+          <t>Escorts Kubota Limited</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -876,30 +876,30 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2.553775</v>
+        <v>1.933665</v>
       </c>
       <c r="E14" t="n">
-        <v>2.81131</v>
+        <v>2.099768</v>
       </c>
       <c r="F14" t="n">
-        <v>2.756162</v>
+        <v>2.070896</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2575350000000003</v>
+        <v>-0.1661030000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.2023869999999999</v>
+        <v>-0.1372309999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INE776C01039</t>
+          <t>INE881D01027</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GMR Airports Limited</t>
+          <t>Oracle Financial Services Software Ltd</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -908,30 +908,30 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2.514308</v>
+        <v>1.637482</v>
       </c>
       <c r="E15" t="n">
-        <v>3.026149</v>
+        <v>1.46054</v>
       </c>
       <c r="F15" t="n">
-        <v>2.597342</v>
+        <v>1.48032</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.511841</v>
+        <v>0.1769420000000002</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.08303399999999961</v>
+        <v>0.157162</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INE151A01013</t>
+          <t>INE364U01010</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tata Communications Limited</t>
+          <t>Adani Green Energy Limited</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -940,30 +940,30 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2.329661</v>
+        <v>1.60878</v>
       </c>
       <c r="E16" t="n">
-        <v>2.226495</v>
+        <v>1.725262</v>
       </c>
       <c r="F16" t="n">
-        <v>2.27651</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1031660000000003</v>
+        <v>-0.116482</v>
       </c>
       <c r="H16" t="n">
-        <v>0.05315100000000017</v>
+        <v>1.60878</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INE042A01014</t>
+          <t>INE470A01017</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Escorts Kubota Limited</t>
+          <t>3M India Limited</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -972,30 +972,30 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2.099768</v>
+        <v>1.380572</v>
       </c>
       <c r="E17" t="n">
-        <v>2.070896</v>
+        <v>1.269292</v>
       </c>
       <c r="F17" t="n">
-        <v>2.032858</v>
+        <v>1.21028</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02887200000000023</v>
+        <v>0.1112799999999998</v>
       </c>
       <c r="H17" t="n">
-        <v>0.06691000000000003</v>
+        <v>0.1702919999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE699H01024</t>
+          <t>INE880J01026</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Adani Wilmar Limited</t>
+          <t>JSW Infrastructure Limited</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1004,30 +1004,30 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2.013451</v>
+        <v>1.295972</v>
       </c>
       <c r="E18" t="n">
-        <v>2.111941</v>
+        <v>1.285633</v>
       </c>
       <c r="F18" t="n">
-        <v>2.217973</v>
+        <v>1.172849</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.09848999999999997</v>
+        <v>0.01033899999999988</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.2045220000000003</v>
+        <v>0.1231229999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE364U01010</t>
+          <t>INE0BS701011</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Adani Green Energy Limited</t>
+          <t>Premier Energies Limited</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1036,30 +1036,30 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.725262</v>
+        <v>1.184429</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.24758</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.389102</v>
       </c>
       <c r="G19" t="n">
-        <v>1.725262</v>
+        <v>-0.06315099999999996</v>
       </c>
       <c r="H19" t="n">
-        <v>1.725262</v>
+        <v>-0.2046730000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INE881D01027</t>
+          <t>INE0J1Y01017</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Oracle Financial Services Software Ltd</t>
+          <t>Life Insurance Corporation Of India</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1068,30 +1068,30 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.46054</v>
+        <v>1.150905</v>
       </c>
       <c r="E20" t="n">
-        <v>1.48032</v>
+        <v>4.069492</v>
       </c>
       <c r="F20" t="n">
-        <v>1.538716</v>
+        <v>4.09185</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01978000000000013</v>
+        <v>-2.918587</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.07817600000000002</v>
+        <v>-2.940945</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>INE880J01026</t>
+          <t>INE931S01010</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>JSW Infrastructure Limited</t>
+          <t>Adani Energy Solutions Limited</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1100,30 +1100,30 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.285633</v>
+        <v>1.107085</v>
       </c>
       <c r="E21" t="n">
-        <v>1.172849</v>
+        <v>1.144499</v>
       </c>
       <c r="F21" t="n">
-        <v>1.244422</v>
+        <v>1.064786</v>
       </c>
       <c r="G21" t="n">
-        <v>0.112784</v>
+        <v>-0.03741399999999984</v>
       </c>
       <c r="H21" t="n">
-        <v>0.04121100000000011</v>
+        <v>0.04229900000000009</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>INE470A01017</t>
+          <t>INE259A01022</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3M India Limited</t>
+          <t>Colgate-Palmolive (India) Ltd</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1132,30 +1132,30 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.269292</v>
+        <v>0.989349</v>
       </c>
       <c r="E22" t="n">
-        <v>1.21028</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.016226</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05901200000000006</v>
+        <v>0.989349</v>
       </c>
       <c r="H22" t="n">
-        <v>0.253066</v>
+        <v>0.989349</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>INE0BS701011</t>
+          <t>INE179A01014</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Premier Energies Limited</t>
+          <t>Procter &amp; Gamble Hygiene &amp; Health Care Limited</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1164,30 +1164,30 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.24758</v>
+        <v>0.534404</v>
       </c>
       <c r="E23" t="n">
-        <v>1.389102</v>
+        <v>0.530464</v>
       </c>
       <c r="F23" t="n">
-        <v>1.540266</v>
+        <v>0.501344</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1415220000000001</v>
+        <v>0.003939999999999944</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.292686</v>
+        <v>0.03305999999999998</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>INE931S01010</t>
+          <t>INE018E01016</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Adani Energy Solutions Limited</t>
+          <t>SBI Cards &amp; Payment Services Ltd</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1196,30 +1196,30 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.144499</v>
+        <v>0.415008</v>
       </c>
       <c r="E24" t="n">
-        <v>1.064786</v>
+        <v>0.42731</v>
       </c>
       <c r="F24" t="n">
-        <v>1.04491</v>
+        <v>0.419452</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07971299999999992</v>
+        <v>-0.01230200000000004</v>
       </c>
       <c r="H24" t="n">
-        <v>0.09958899999999993</v>
+        <v>-0.004444000000000004</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INE179A01014</t>
+          <t>INE271C01023</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Procter &amp; Gamble Hygiene &amp; Health Care Limited</t>
+          <t>DLF Limited</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1228,30 +1228,30 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.530464</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.501344</v>
+        <v>3.552037</v>
       </c>
       <c r="F25" t="n">
-        <v>0.519294</v>
+        <v>3.593398</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02912000000000003</v>
+        <v>-3.552037</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01117000000000001</v>
+        <v>-3.593398</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>INE018E01016</t>
+          <t>INE467B01029</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SBI Cards &amp; Payment Services Ltd</t>
+          <t>Tata Consultancy Services Limited</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1260,30 +1260,30 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.42731</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.419452</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4144</v>
+        <v>2.952062</v>
       </c>
       <c r="G26" t="n">
-        <v>0.007858000000000032</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01291000000000003</v>
+        <v>-2.952062</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>INE467B01029</t>
+          <t>INE686F01025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Limited</t>
+          <t>UNITED BREWERIES LIMITED</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1295,27 +1295,27 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>2.952062</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>2.84746</v>
+        <v>0.443915</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.952062</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>-2.84746</v>
+        <v>-0.443915</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>INE686F01025</t>
+          <t>INE154A01025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>UNITED BREWERIES LIMITED</t>
+          <t>ITC Limited</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1327,27 +1327,27 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.443915</v>
+        <v>3.439933</v>
       </c>
       <c r="F28" t="n">
-        <v>2.382529</v>
+        <v>3.316147</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.443915</v>
+        <v>-3.439933</v>
       </c>
       <c r="H28" t="n">
-        <v>-2.382529</v>
+        <v>-3.316147</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>INE326A01037</t>
+          <t>INE14LE01019</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Lupin Limited</t>
+          <t>Aditya Birla Lifestyle Brands Limited</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1362,24 +1362,24 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.097036</v>
+        <v>0.683092</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-1.097036</v>
+        <v>-0.683092</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>INE14LE01019</t>
+          <t>INE776C01039</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Aditya Birla Lifestyle Brands Limited</t>
+          <t>GMR Airports Limited</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1391,27 +1391,27 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.683092</v>
+        <v>2.514308</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6938299999999999</v>
+        <v>3.026149</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.683092</v>
+        <v>-2.514308</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.6938299999999999</v>
+        <v>-3.026149</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>INE121J01017</t>
+          <t>INE115A01026</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Indus Towers Limited</t>
+          <t>LIC Housing Finance Ltd</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1426,77 +1426,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.840259</v>
+        <v>0.146427</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-1.840259</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>INE115A01026</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>LIC Housing Finance Ltd</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>quant Large and Mid Cap Fund</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.146427</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.150677</v>
-      </c>
-      <c r="G32" t="n">
         <v>-0.146427</v>
-      </c>
-      <c r="H32" t="n">
-        <v>-0.150677</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>INE821I01022</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>IRB Infrastructure Developers Limited</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>quant Large and Mid Cap Fund</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>4.245558</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>-4.245558</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_Large_and_Mid_Cap_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Large_and_Mid_Cap_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,25 +451,30 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Nov_2025</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Oct_2025</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -491,20 +496,25 @@
           <t>quant Large and Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>7.921843</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>6.98705</v>
       </c>
-      <c r="F2" t="n">
-        <v>6.962837</v>
-      </c>
       <c r="G2" t="n">
+        <v>6.397524</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.934793</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.9590059999999996</v>
+      <c r="I2" t="n">
+        <v>1.524319</v>
       </c>
     </row>
     <row r="3">
@@ -523,20 +533,25 @@
           <t>quant Large and Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>6.56115</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>6.276131</v>
       </c>
-      <c r="F3" t="n">
-        <v>5.439641</v>
-      </c>
       <c r="G3" t="n">
+        <v>4.877879</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.2850189999999992</v>
       </c>
-      <c r="H3" t="n">
-        <v>1.121509</v>
+      <c r="I3" t="n">
+        <v>1.683271</v>
       </c>
     </row>
     <row r="4">
@@ -555,20 +570,25 @@
           <t>quant Large and Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>6.354931</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>6.849578</v>
       </c>
-      <c r="F4" t="n">
-        <v>6.079997</v>
-      </c>
       <c r="G4" t="n">
+        <v>6.433149</v>
+      </c>
+      <c r="H4" t="n">
         <v>-0.4946470000000005</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.274934</v>
+      <c r="I4" t="n">
+        <v>-0.07821800000000056</v>
       </c>
     </row>
     <row r="5">
@@ -587,20 +607,25 @@
           <t>quant Large and Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>5.980584</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>5.592055</v>
       </c>
-      <c r="F5" t="n">
-        <v>5.355863</v>
-      </c>
       <c r="G5" t="n">
+        <v>5.249986</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.3885290000000001</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.6247210000000001</v>
+      <c r="I5" t="n">
+        <v>0.7305980000000005</v>
       </c>
     </row>
     <row r="6">
@@ -619,20 +644,25 @@
           <t>quant Large and Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>5.877455</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>10.008666</v>
       </c>
-      <c r="F6" t="n">
-        <v>10.111124</v>
-      </c>
       <c r="G6" t="n">
+        <v>10.516761</v>
+      </c>
+      <c r="H6" t="n">
         <v>-4.131211</v>
       </c>
-      <c r="H6" t="n">
-        <v>-4.233669</v>
+      <c r="I6" t="n">
+        <v>-4.639306</v>
       </c>
     </row>
     <row r="7">
@@ -651,20 +681,25 @@
           <t>quant Large and Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>5.445909</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>5.17921</v>
       </c>
-      <c r="F7" t="n">
-        <v>5.13404</v>
-      </c>
       <c r="G7" t="n">
+        <v>5.437755</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.266699</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.3118690000000006</v>
+      <c r="I7" t="n">
+        <v>0.008154000000000217</v>
       </c>
     </row>
     <row r="8">
@@ -683,20 +718,25 @@
           <t>quant Large and Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>3.638142</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>3.796489</v>
       </c>
-      <c r="F8" t="n">
-        <v>3.787719</v>
-      </c>
       <c r="G8" t="n">
+        <v>3.755834</v>
+      </c>
+      <c r="H8" t="n">
         <v>-0.1583469999999996</v>
       </c>
-      <c r="H8" t="n">
-        <v>-0.1495769999999998</v>
+      <c r="I8" t="n">
+        <v>-0.1176919999999999</v>
       </c>
     </row>
     <row r="9">
@@ -715,20 +755,25 @@
           <t>quant Large and Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>2.919895</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>2.696909</v>
       </c>
-      <c r="F9" t="n">
-        <v>2.641767</v>
-      </c>
       <c r="G9" t="n">
+        <v>2.503406</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.2229860000000001</v>
       </c>
-      <c r="H9" t="n">
-        <v>0.2781279999999997</v>
+      <c r="I9" t="n">
+        <v>0.4164889999999999</v>
       </c>
     </row>
     <row r="10">
@@ -747,20 +792,25 @@
           <t>quant Large and Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>2.616977</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>2.553775</v>
       </c>
-      <c r="F10" t="n">
-        <v>2.81131</v>
-      </c>
       <c r="G10" t="n">
+        <v>2.756162</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.06320199999999998</v>
       </c>
-      <c r="H10" t="n">
-        <v>-0.1943330000000003</v>
+      <c r="I10" t="n">
+        <v>-0.1391849999999999</v>
       </c>
     </row>
     <row r="11">
@@ -779,20 +829,25 @@
           <t>quant Large and Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>2.478869</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>3.216406</v>
       </c>
-      <c r="F11" t="n">
-        <v>2.996257</v>
-      </c>
       <c r="G11" t="n">
+        <v>2.960406</v>
+      </c>
+      <c r="H11" t="n">
         <v>-0.7375370000000001</v>
       </c>
-      <c r="H11" t="n">
-        <v>-0.517388</v>
+      <c r="I11" t="n">
+        <v>-0.4815369999999999</v>
       </c>
     </row>
     <row r="12">
@@ -811,20 +866,25 @@
           <t>quant Large and Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>2.22615</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>2.329661</v>
       </c>
-      <c r="F12" t="n">
-        <v>2.226495</v>
-      </c>
       <c r="G12" t="n">
+        <v>2.27651</v>
+      </c>
+      <c r="H12" t="n">
         <v>-0.1035110000000001</v>
       </c>
-      <c r="H12" t="n">
-        <v>-0.0003449999999998177</v>
+      <c r="I12" t="n">
+        <v>-0.05035999999999996</v>
       </c>
     </row>
     <row r="13">
@@ -843,20 +903,25 @@
           <t>quant Large and Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>2.016296</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>2.013451</v>
       </c>
-      <c r="F13" t="n">
-        <v>2.111941</v>
-      </c>
       <c r="G13" t="n">
+        <v>2.217973</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.002845000000000208</v>
       </c>
-      <c r="H13" t="n">
-        <v>-0.09564499999999976</v>
+      <c r="I13" t="n">
+        <v>-0.2016770000000001</v>
       </c>
     </row>
     <row r="14">
@@ -875,20 +940,25 @@
           <t>quant Large and Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>1.933665</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>2.099768</v>
       </c>
-      <c r="F14" t="n">
-        <v>2.070896</v>
-      </c>
       <c r="G14" t="n">
+        <v>2.032858</v>
+      </c>
+      <c r="H14" t="n">
         <v>-0.1661030000000001</v>
       </c>
-      <c r="H14" t="n">
-        <v>-0.1372309999999999</v>
+      <c r="I14" t="n">
+        <v>-0.09919300000000009</v>
       </c>
     </row>
     <row r="15">
@@ -907,20 +977,25 @@
           <t>quant Large and Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
         <v>1.637482</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>1.46054</v>
       </c>
-      <c r="F15" t="n">
-        <v>1.48032</v>
-      </c>
       <c r="G15" t="n">
+        <v>1.538716</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.1769420000000002</v>
       </c>
-      <c r="H15" t="n">
-        <v>0.157162</v>
+      <c r="I15" t="n">
+        <v>0.09876600000000013</v>
       </c>
     </row>
     <row r="16">
@@ -939,19 +1014,24 @@
           <t>quant Large and Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
         <v>1.60878</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>1.725262</v>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
       <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>-0.116482</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>1.60878</v>
       </c>
     </row>
@@ -971,20 +1051,25 @@
           <t>quant Large and Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
         <v>1.380572</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>1.269292</v>
       </c>
-      <c r="F17" t="n">
-        <v>1.21028</v>
-      </c>
       <c r="G17" t="n">
+        <v>1.016226</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.1112799999999998</v>
       </c>
-      <c r="H17" t="n">
-        <v>0.1702919999999999</v>
+      <c r="I17" t="n">
+        <v>0.3643459999999998</v>
       </c>
     </row>
     <row r="18">
@@ -1003,20 +1088,25 @@
           <t>quant Large and Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
         <v>1.295972</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>1.285633</v>
       </c>
-      <c r="F18" t="n">
-        <v>1.172849</v>
-      </c>
       <c r="G18" t="n">
+        <v>1.244422</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.01033899999999988</v>
       </c>
-      <c r="H18" t="n">
-        <v>0.1231229999999999</v>
+      <c r="I18" t="n">
+        <v>0.05154999999999998</v>
       </c>
     </row>
     <row r="19">
@@ -1035,20 +1125,25 @@
           <t>quant Large and Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
         <v>1.184429</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>1.24758</v>
       </c>
-      <c r="F19" t="n">
-        <v>1.389102</v>
-      </c>
       <c r="G19" t="n">
+        <v>1.540266</v>
+      </c>
+      <c r="H19" t="n">
         <v>-0.06315099999999996</v>
       </c>
-      <c r="H19" t="n">
-        <v>-0.2046730000000001</v>
+      <c r="I19" t="n">
+        <v>-0.355837</v>
       </c>
     </row>
     <row r="20">
@@ -1067,20 +1162,25 @@
           <t>quant Large and Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
         <v>1.150905</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>4.069492</v>
       </c>
-      <c r="F20" t="n">
-        <v>4.09185</v>
-      </c>
       <c r="G20" t="n">
+        <v>4.050602</v>
+      </c>
+      <c r="H20" t="n">
         <v>-2.918587</v>
       </c>
-      <c r="H20" t="n">
-        <v>-2.940945</v>
+      <c r="I20" t="n">
+        <v>-2.899697</v>
       </c>
     </row>
     <row r="21">
@@ -1099,20 +1199,25 @@
           <t>quant Large and Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
         <v>1.107085</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>1.144499</v>
       </c>
-      <c r="F21" t="n">
-        <v>1.064786</v>
-      </c>
       <c r="G21" t="n">
+        <v>1.04491</v>
+      </c>
+      <c r="H21" t="n">
         <v>-0.03741399999999984</v>
       </c>
-      <c r="H21" t="n">
-        <v>0.04229900000000009</v>
+      <c r="I21" t="n">
+        <v>0.06217500000000009</v>
       </c>
     </row>
     <row r="22">
@@ -1131,21 +1236,26 @@
           <t>quant Large and Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
         <v>0.989349</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.989349</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0.989349</v>
       </c>
+      <c r="I22" t="n">
+        <v>0.989349</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1163,20 +1273,25 @@
           <t>quant Large and Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
         <v>0.534404</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>0.530464</v>
       </c>
-      <c r="F23" t="n">
-        <v>0.501344</v>
-      </c>
       <c r="G23" t="n">
+        <v>0.519294</v>
+      </c>
+      <c r="H23" t="n">
         <v>0.003939999999999944</v>
       </c>
-      <c r="H23" t="n">
-        <v>0.03305999999999998</v>
+      <c r="I23" t="n">
+        <v>0.01510999999999996</v>
       </c>
     </row>
     <row r="24">
@@ -1195,31 +1310,36 @@
           <t>quant Large and Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
         <v>0.415008</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>0.42731</v>
       </c>
-      <c r="F24" t="n">
-        <v>0.419452</v>
-      </c>
       <c r="G24" t="n">
+        <v>0.4144</v>
+      </c>
+      <c r="H24" t="n">
         <v>-0.01230200000000004</v>
       </c>
-      <c r="H24" t="n">
-        <v>-0.004444000000000004</v>
+      <c r="I24" t="n">
+        <v>0.0006079999999999974</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INE271C01023</t>
+          <t>INE467B01029</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DLF Limited</t>
+          <t>Tata Consultancy Services Limited</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1227,31 +1347,36 @@
           <t>quant Large and Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>0</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E25" t="n">
-        <v>3.552037</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>3.593398</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.552037</v>
+        <v>2.84746</v>
       </c>
       <c r="H25" t="n">
-        <v>-3.593398</v>
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-2.84746</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>INE467B01029</t>
+          <t>INE686F01025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Limited</t>
+          <t>UNITED BREWERIES LIMITED</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1259,31 +1384,36 @@
           <t>quant Large and Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>2.952062</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.382529</v>
       </c>
       <c r="H26" t="n">
-        <v>-2.952062</v>
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-2.382529</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>INE686F01025</t>
+          <t>INE271C01023</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>UNITED BREWERIES LIMITED</t>
+          <t>DLF Limited</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1291,31 +1421,36 @@
           <t>quant Large and Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>0</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.443915</v>
+        <v>3.552037</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>3.71664</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.443915</v>
+        <v>-3.552037</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-3.71664</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>INE154A01025</t>
+          <t>INE776C01039</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ITC Limited</t>
+          <t>GMR Airports Limited</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1323,31 +1458,36 @@
           <t>quant Large and Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>0</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E28" t="n">
-        <v>3.439933</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>3.316147</v>
+        <v>2.514308</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.439933</v>
+        <v>2.597342</v>
       </c>
       <c r="H28" t="n">
-        <v>-3.316147</v>
+        <v>-2.514308</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-2.597342</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>INE14LE01019</t>
+          <t>INE154A01025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Aditya Birla Lifestyle Brands Limited</t>
+          <t>ITC Limited</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1355,31 +1495,36 @@
           <t>quant Large and Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.683092</v>
+        <v>3.439933</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>3.412505</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.683092</v>
+        <v>-3.439933</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-3.412505</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>INE776C01039</t>
+          <t>INE14LE01019</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>GMR Airports Limited</t>
+          <t>Aditya Birla Lifestyle Brands Limited</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1387,52 +1532,173 @@
           <t>quant Large and Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>0</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E30" t="n">
-        <v>2.514308</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>3.026149</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>-2.514308</v>
+        <v>0.6938299999999999</v>
       </c>
       <c r="H30" t="n">
-        <v>-3.026149</v>
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-0.6938299999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>INE821I01022</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>IRB Infrastructure Developers Limited</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>quant Large and Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4.245558</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-4.245558</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>INE121J01017</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Indus Towers Limited</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>quant Large and Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.840259</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-1.840259</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
           <t>INE115A01026</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>LIC Housing Finance Ltd</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>quant Large and Mid Cap Fund</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.146427</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>-0.146427</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>quant Large and Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.150677</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-0.150677</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>INE326A01037</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Lupin Limited</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>quant Large and Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.097036</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-1.097036</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_Large_and_Mid_Cap_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Large_and_Mid_Cap_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,35 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Mutual Fund</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Oct_2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -493,27 +498,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>quant Large and Mid Cap Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>quant Large and Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>7.921843</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>6.98705</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>6.397524</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0.934793</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>1.524319</v>
       </c>
     </row>
@@ -530,27 +540,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>quant Large and Mid Cap Fund</t>
+          <t>Auto Components</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>quant Large and Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>6.56115</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>6.276131</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>4.877879</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0.2850189999999992</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>1.683271</v>
       </c>
     </row>
@@ -567,27 +582,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>quant Large and Mid Cap Fund</t>
+          <t>Minerals &amp; Mining</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>quant Large and Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>6.354931</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>6.849578</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>6.433149</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>-0.4946470000000005</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>-0.07821800000000056</v>
       </c>
     </row>
@@ -604,27 +624,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>quant Large and Mid Cap Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>quant Large and Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>5.980584</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>5.592055</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>5.249986</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.3885290000000001</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.7305980000000005</v>
       </c>
     </row>
@@ -641,27 +666,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>quant Large and Mid Cap Fund</t>
+          <t>Petroleum Products</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>quant Large and Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>5.877455</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>10.008666</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>10.516761</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>-4.131211</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>-4.639306</v>
       </c>
     </row>
@@ -678,27 +708,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>quant Large and Mid Cap Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>quant Large and Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>5.445909</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>5.17921</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>5.437755</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>0.266699</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>0.008154000000000217</v>
       </c>
     </row>
@@ -715,27 +750,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>quant Large and Mid Cap Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>quant Large and Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>3.638142</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>3.796489</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>3.755834</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>-0.1583469999999996</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>-0.1176919999999999</v>
       </c>
     </row>
@@ -752,27 +792,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>quant Large and Mid Cap Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>quant Large and Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>2.919895</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>2.696909</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>2.503406</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>0.2229860000000001</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>0.4164889999999999</v>
       </c>
     </row>
@@ -789,27 +834,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>quant Large and Mid Cap Fund</t>
+          <t>Textiles &amp; Apparels</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>quant Large and Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>2.616977</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>2.553775</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>2.756162</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>0.06320199999999998</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>-0.1391849999999999</v>
       </c>
     </row>
@@ -826,27 +876,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>quant Large and Mid Cap Fund</t>
+          <t>Food Products</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>quant Large and Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>2.478869</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>3.216406</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>2.960406</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>-0.7375370000000001</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>-0.4815369999999999</v>
       </c>
     </row>
@@ -863,27 +918,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>quant Large and Mid Cap Fund</t>
+          <t>Telecom - Services</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>quant Large and Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>2.22615</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>2.329661</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>2.27651</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>-0.1035110000000001</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>-0.05035999999999996</v>
       </c>
     </row>
@@ -900,27 +960,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>quant Large and Mid Cap Fund</t>
+          <t>Agricultural Food &amp; other Products</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>quant Large and Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>2.016296</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>2.013451</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>2.217973</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>0.002845000000000208</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>-0.2016770000000001</v>
       </c>
     </row>
@@ -937,27 +1002,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>quant Large and Mid Cap Fund</t>
+          <t>Agricultural, Commercial &amp; Construction Vehicles</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>quant Large and Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>1.933665</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>2.099768</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>2.032858</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>-0.1661030000000001</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>-0.09919300000000009</v>
       </c>
     </row>
@@ -974,27 +1044,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>quant Large and Mid Cap Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>quant Large and Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>1.637482</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>1.46054</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>1.538716</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>0.1769420000000002</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>0.09876600000000013</v>
       </c>
     </row>
@@ -1011,27 +1086,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>quant Large and Mid Cap Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>quant Large and Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>1.60878</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>1.725262</v>
       </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>-0.116482</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>1.60878</v>
       </c>
     </row>
@@ -1048,27 +1128,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>quant Large and Mid Cap Fund</t>
+          <t>Diversified</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>quant Large and Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>1.380572</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>1.269292</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>1.016226</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>0.1112799999999998</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>0.3643459999999998</v>
       </c>
     </row>
@@ -1085,27 +1170,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>quant Large and Mid Cap Fund</t>
+          <t>Transport Infrastructure</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>quant Large and Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>1.295972</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>1.285633</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>1.244422</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>0.01033899999999988</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>0.05154999999999998</v>
       </c>
     </row>
@@ -1122,27 +1212,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>quant Large and Mid Cap Fund</t>
+          <t>Electrical Equipment</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>quant Large and Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>1.184429</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>1.24758</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>1.540266</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>-0.06315099999999996</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>-0.355837</v>
       </c>
     </row>
@@ -1159,27 +1254,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>quant Large and Mid Cap Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>quant Large and Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>1.150905</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>4.069492</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>4.050602</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>-2.918587</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>-2.899697</v>
       </c>
     </row>
@@ -1196,27 +1296,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>quant Large and Mid Cap Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>quant Large and Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>1.107085</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>1.144499</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>1.04491</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>-0.03741399999999984</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>0.06217500000000009</v>
       </c>
     </row>
@@ -1233,29 +1338,34 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>quant Large and Mid Cap Fund</t>
+          <t>Personal Products</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>quant Large and Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.989349</v>
       </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.989349</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0.989349</v>
       </c>
+      <c r="J22" t="n">
+        <v>0.989349</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1270,27 +1380,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>quant Large and Mid Cap Fund</t>
+          <t>Personal Products</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>quant Large and Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>0.534404</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>0.530464</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>0.519294</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>0.003939999999999944</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>0.01510999999999996</v>
       </c>
     </row>
@@ -1307,27 +1422,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>quant Large and Mid Cap Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>quant Large and Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>0.415008</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>0.42731</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>0.4144</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>-0.01230200000000004</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>0.0006079999999999974</v>
       </c>
     </row>
@@ -1344,27 +1464,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>quant Large and Mid Cap Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>quant Large and Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
         <v>2.84746</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>-2.84746</v>
       </c>
     </row>
@@ -1381,27 +1506,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>quant Large and Mid Cap Fund</t>
+          <t>Beverages</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>quant Large and Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>2.382529</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
         <v>-2.382529</v>
       </c>
     </row>
@@ -1418,27 +1548,32 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>quant Large and Mid Cap Fund</t>
+          <t>Realty</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>quant Large and Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
       <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
         <v>3.552037</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>3.71664</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>-3.552037</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>-3.71664</v>
       </c>
     </row>
@@ -1455,27 +1590,32 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>quant Large and Mid Cap Fund</t>
+          <t>Transport Infrastructure</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>quant Large and Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
         <v>2.514308</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>2.597342</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>-2.514308</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>-2.597342</v>
       </c>
     </row>
@@ -1492,27 +1632,32 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>quant Large and Mid Cap Fund</t>
+          <t>Diversified FMCG</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>quant Large and Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>3.439933</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>3.412505</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>-3.439933</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>-3.412505</v>
       </c>
     </row>
@@ -1529,27 +1674,32 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>quant Large and Mid Cap Fund</t>
+          <t>Retailing</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>quant Large and Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
         <v>0.6938299999999999</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>-0.6938299999999999</v>
       </c>
     </row>
@@ -1566,27 +1716,32 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>quant Large and Mid Cap Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>quant Large and Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
         <v>4.245558</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
         <v>-4.245558</v>
       </c>
     </row>
@@ -1603,27 +1758,32 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>quant Large and Mid Cap Fund</t>
+          <t>Telecom - Services</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>quant Large and Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>1.840259</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
         <v>-1.840259</v>
       </c>
     </row>
@@ -1640,27 +1800,32 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>quant Large and Mid Cap Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>quant Large and Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
         <v>0.150677</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
         <v>-0.150677</v>
       </c>
     </row>
@@ -1677,27 +1842,32 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>quant Large and Mid Cap Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>quant Large and Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
         <v>1.097036</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>-1.097036</v>
       </c>
     </row>
